--- a/input/unemployment.xlsx
+++ b/input/unemployment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="19200" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1075A6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -212,7 +217,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="1075A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -326,11 +331,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="333267688"/>
-        <c:axId val="333268080"/>
+        <c:axId val="118700040"/>
+        <c:axId val="118704520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333267688"/>
+        <c:axId val="118700040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -367,7 +372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333268080"/>
+        <c:crossAx val="118704520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -375,7 +380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333268080"/>
+        <c:axId val="118704520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +429,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333267688"/>
+        <c:crossAx val="118700040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,7 +468,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1278,7 +1283,7 @@
   <dimension ref="A2:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
